--- a/src/test/resources/Excel Files/testAdd.xlsx
+++ b/src/test/resources/Excel Files/testAdd.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
